--- a/数据整理/stocks/A股/科创板/688029-南微医学.xlsx
+++ b/数据整理/stocks/A股/科创板/688029-南微医学.xlsx
@@ -451,463 +451,623 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4887</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>000913</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>农银医疗保健主题股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>95.14</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.66</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4665</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008284</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0218</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008285</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0218</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>008293</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>农银汇理创新医疗混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>94.80</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>5.88</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9408</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>110023</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达医疗保健行业混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8467</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>090001</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>大成价值增长混合</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>71.71</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2.75</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5247</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>090020</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>大成健康产业混合</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>90.42</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>6.20</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>001365</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>大成正向回报灵活配置混合</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>91.89</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>6.40</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001898</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达大健康主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>86.33</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161224</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.55</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501079</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>92.78</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008284</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达全球医药行业混合（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>90.47</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>8.26</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008285</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>易方达全球医药行业混合（QDII）美元</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>90.47</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>8.26</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008988</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>大成科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008989</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010054</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万家健康产业混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>40.72</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010055</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>万家健康产业混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>40.72</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -917,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,15 +1098,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000418</t>
+          <t>110023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城成长之星</t>
+          <t>易方达医疗保健行业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82.59</t>
+          <t>43.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4246</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005689</t>
+          <t>000913</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银医疗保健灵活配置混合A</t>
+          <t>农银医疗保健主题股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85.48</t>
+          <t>26.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4189</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010159</t>
+          <t>506006</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银医疗保健灵活配置混合C</t>
+          <t>汇添富科创板2年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.48</t>
+          <t>31.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>78.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1130</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000913</t>
+          <t>501079</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>农银医疗保健主题股票</t>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>85.58</t>
+          <t>18.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9617</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005029</t>
+          <t>008293</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银产业精选混合</t>
+          <t>农银汇理创新医疗混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.58</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8427</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009877</t>
+          <t>000996</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中银内核驱动股票</t>
+          <t>中银新动力股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>12.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8326</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000432</t>
+          <t>008284</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中银优秀企业混合</t>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>87.61</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7530</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>260112</t>
+          <t>008285</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城能源基建混合</t>
+          <t>易方达全球医药行业混合（QDII）美元</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>60.41</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7530</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000939</t>
+          <t>010371</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中银研究精选灵活配置混合</t>
+          <t>大成成长进取混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>84.55</t>
+          <t>12.98</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6879</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010371</t>
+          <t>008132</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成成长进取混合A</t>
+          <t>鹏华价值驱动混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>83.35</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4041</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010372</t>
+          <t>005689</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大成成长进取混合C</t>
+          <t>中银医疗保健灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>83.35</t>
+          <t>11.34</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3958</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000996</t>
+          <t>000939</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中银新动力股票</t>
+          <t>中银研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>88.50</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.78</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>501079</t>
+          <t>009877</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+          <t>中银内核驱动股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>78.67</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3516</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>506006</t>
+          <t>260112</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>汇添富科创板2年定期开放混合</t>
+          <t>景顺长城能源基建混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>78.78</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>60.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2465</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001365</t>
+          <t>009414</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>大成正向回报灵活配置混合</t>
+          <t>中银大健康股票A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>91.59</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>090016</t>
+          <t>010372</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>大成消费主题混合</t>
+          <t>大成成长进取混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>090020</t>
+          <t>007718</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大成健康产业混合</t>
+          <t>中银创新医疗混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>89.26</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>110023</t>
+          <t>008988</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>易方达医疗保健行业混合</t>
+          <t>大成科技创新混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002180</t>
+          <t>000418</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中银移动互联灵活配置混合</t>
+          <t>景顺长城成长之星</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>83.32</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>161224</t>
+          <t>090016</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+          <t>大成消费主题混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>002319</t>
+          <t>090020</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大成一带一路灵活配置混合</t>
+          <t>大成健康产业混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>89.80</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1546,25 +1926,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008988</t>
+          <t>008989</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>大成科技创新混合A</t>
+          <t>大成科技创新混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>91.22</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>4.33</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008989</t>
+          <t>005029</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>大成科技创新混合C</t>
+          <t>中银产业精选混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>007718</t>
+          <t>161224</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中银创新医疗混合A</t>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>9</v>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>010500</t>
+          <t>001365</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中银创新医疗混合C</t>
+          <t>大成正向回报灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>008132</t>
+          <t>002319</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鹏华价值驱动混合</t>
+          <t>大成一带一路灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>86.87</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>008284</t>
+          <t>002180</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>易方达全球医药行业混合（QDII）人民币</t>
+          <t>中银移动互联灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>008285</t>
+          <t>000432</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>易方达全球医药行业混合（QDII）美元</t>
+          <t>中银优秀企业混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
+          <t>87.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>008293</t>
+          <t>010159</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>农银汇理创新医疗混合</t>
+          <t>中银医疗保健灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>81.48</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>009414</t>
+          <t>010500</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中银大健康股票A</t>
+          <t>中银创新医疗混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>85.91</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>7</v>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1808,15 +2278,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>85.91</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688029-南微医学.xlsx
+++ b/数据整理/stocks/A股/科创板/688029-南微医学.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2303,4 +2304,3098 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9030</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4282</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6669</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4930</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4106</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4042</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008284</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2695</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008285</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2695</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1610</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银新动力股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1539</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8279</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7902</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7891</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7708</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7104</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6979</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5986</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5986</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5967</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>48.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4783</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4532</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4444</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4366</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4107</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4050</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3526</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3458</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3435</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>62.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2927</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2726</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2583</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2557</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2303</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1965</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银双息回报混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>69.35</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>206003</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华信用增利债券 - A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004806</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长信先机两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>206004</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华信用增利债券 - B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688029-南微医学.xlsx
+++ b/数据整理/stocks/A股/科创板/688029-南微医学.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5398,4 +5399,1960 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9796</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2107</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0713</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5635</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0871</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008284</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0501</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008285</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0501</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9547</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银新动力股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8520</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4955</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4809</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4533</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4192</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4081</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3969</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3949</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3175</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>68.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2676</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2562</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2327</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>65.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2012</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>32.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>67.14</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688029-南微医学.xlsx
+++ b/数据整理/stocks/A股/科创板/688029-南微医学.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7355,4 +7356,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688029-南微医学.xlsx
+++ b/数据整理/stocks/A股/科创板/688029-南微医学.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7364,7 +7365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7375,17 +7376,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7395,14 +7416,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.1</v>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -7411,14 +7454,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" t="n">
-        <v>31.8</v>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7055</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7427,14 +7492,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.81</v>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6883</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -7443,13 +7530,1139 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2885</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7348</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6725</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6017</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银新动力股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5744</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3615</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3459</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3007</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688029-南微医学.xlsx
+++ b/数据整理/stocks/A股/科创板/688029-南微医学.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8561,7 +8562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8572,17 +8573,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8592,14 +8613,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.31</v>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1117</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -8608,14 +8651,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.1</v>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7721</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -8624,14 +8689,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>80</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.8</v>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1884</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -8640,14 +8727,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>31</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.81</v>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -8656,13 +8765,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688029-南微医学.xlsx
+++ b/数据整理/stocks/A股/科创板/688029-南微医学.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9036,7 +9037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9047,17 +9048,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9067,14 +9088,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.47</v>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2831</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -9083,14 +9126,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.31</v>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -9099,14 +9164,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21.1</v>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -9115,14 +9202,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>80</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31.8</v>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -9131,14 +9240,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>31</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.81</v>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -9147,13 +9278,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>80</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>31</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>15</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>10.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688029-南微医学.xlsx
+++ b/数据整理/stocks/A股/科创板/688029-南微医学.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.82</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>2.47</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>13.31</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>21.1</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>31.8</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D7" t="n">
-        <v>13.81</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>15</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>10.03</v>
       </c>
     </row>
@@ -600,6 +617,478 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002801</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德泓信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011781</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德慧享混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011782</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德慧享混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1433,7 +1922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2629,7 +3118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4585,7 +5074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7679,7 +8168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8913,7 +9402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688029-南微医学.xlsx
+++ b/数据整理/stocks/A股/科创板/688029-南微医学.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.55</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.82</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>2.47</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>13.31</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>21.1</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>31.8</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D8" t="n">
-        <v>13.81</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,656 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>31</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>15</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>10.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4887</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4665</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008284</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0218</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008285</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0218</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9408</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8467</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5247</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1260,554 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5297</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2697</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2535</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002801</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德泓信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011781</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德慧享混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011782</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泓德慧享混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1088,7 +2279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1448,7 +2639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1922,7 +3113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3118,7 +4309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5074,7 +6265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8168,7 +9359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9400,630 +10591,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>110023</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达医疗保健行业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>53.10</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.4887</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000913</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>农银医疗保健主题股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>31.47</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.4665</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008284</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达全球医药行业混合（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.37</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.47</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.26</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0218</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008285</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达全球医药行业混合（QDII）美元</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.37</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.47</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.26</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.0218</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008293</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>农银汇理创新医疗混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.80</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.9408</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501079</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>18.13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.78</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8467</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>090001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成价值增长混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>19.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5247</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008988</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2037</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001898</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>易方达大健康主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>86.33</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1973</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008989</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0862</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>090020</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成健康产业混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0670</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010054</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>万家健康产业混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>40.72</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0598</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001365</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成正向回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.89</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0550</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>161224</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.55</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0464</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010055</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>万家健康产业混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>40.72</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>